--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
@@ -546,10 +546,10 @@
         <v>0.163767</v>
       </c>
       <c r="I2">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J2">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N2">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q2">
-        <v>2.233634580681667</v>
+        <v>1.663122303213334</v>
       </c>
       <c r="R2">
-        <v>20.102711226135</v>
+        <v>14.96810072892</v>
       </c>
       <c r="S2">
-        <v>0.1299309881001141</v>
+        <v>0.1792683903192601</v>
       </c>
       <c r="T2">
-        <v>0.1694062849302578</v>
+        <v>0.2034432162821934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.163767</v>
       </c>
       <c r="I3">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J3">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q3">
         <v>1.896320106104</v>
@@ -638,10 +638,10 @@
         <v>17.066880954936</v>
       </c>
       <c r="S3">
-        <v>0.1103093349606952</v>
+        <v>0.2044048428034977</v>
       </c>
       <c r="T3">
-        <v>0.1438232318715228</v>
+        <v>0.2319693871827664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.163767</v>
       </c>
       <c r="I4">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J4">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N4">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q4">
-        <v>1.026640966093</v>
+        <v>1.293233789893333</v>
       </c>
       <c r="R4">
-        <v>9.239768694837</v>
+        <v>11.63910410904</v>
       </c>
       <c r="S4">
-        <v>0.05971991851407053</v>
+        <v>0.1393980102201274</v>
       </c>
       <c r="T4">
-        <v>0.07786386973376309</v>
+        <v>0.1581962078870405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.163767</v>
       </c>
       <c r="I5">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J5">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N5">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q5">
-        <v>1.392596997031</v>
+        <v>1.4311525253685</v>
       </c>
       <c r="R5">
-        <v>8.355581982185999</v>
+        <v>8.586915152211001</v>
       </c>
       <c r="S5">
-        <v>0.08100765694371961</v>
+        <v>0.1542643069775761</v>
       </c>
       <c r="T5">
-        <v>0.070412795871638</v>
+        <v>0.1167115099067185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.163767</v>
       </c>
       <c r="I6">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J6">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N6">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q6">
-        <v>1.158919720757</v>
+        <v>1.326389765572</v>
       </c>
       <c r="R6">
-        <v>10.430277486813</v>
+        <v>11.937507890148</v>
       </c>
       <c r="S6">
-        <v>0.06741460118365065</v>
+        <v>0.1429719015556563</v>
       </c>
       <c r="T6">
-        <v>0.08789633099517069</v>
+        <v>0.1622520481087785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H7">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I7">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J7">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N7">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O7">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P7">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q7">
-        <v>2.747903686679167</v>
+        <v>0.36431545736</v>
       </c>
       <c r="R7">
-        <v>16.487422120075</v>
+        <v>2.18589274416</v>
       </c>
       <c r="S7">
-        <v>0.1598461289514997</v>
+        <v>0.03926965893197736</v>
       </c>
       <c r="T7">
-        <v>0.1389401110138646</v>
+        <v>0.02971018557221502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H8">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I8">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J8">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>104.214408</v>
       </c>
       <c r="O8">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P8">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q8">
-        <v>2.332926368420001</v>
+        <v>0.4153986302879999</v>
       </c>
       <c r="R8">
-        <v>13.99755821052</v>
+        <v>2.492391781728</v>
       </c>
       <c r="S8">
-        <v>0.1357068120431385</v>
+        <v>0.04477592757229893</v>
       </c>
       <c r="T8">
-        <v>0.1179579365123839</v>
+        <v>0.03387605478431577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H9">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I9">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J9">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N9">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O9">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P9">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q9">
-        <v>1.2630134400775</v>
+        <v>0.2832894843200001</v>
       </c>
       <c r="R9">
-        <v>7.578080640465001</v>
+        <v>1.69973690592</v>
       </c>
       <c r="S9">
-        <v>0.07346975448549511</v>
+        <v>0.03053584799524233</v>
       </c>
       <c r="T9">
-        <v>0.06386076354387875</v>
+        <v>0.02310245963977151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H10">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I10">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J10">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N10">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O10">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P10">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q10">
-        <v>1.7132267091925</v>
+        <v>0.313501289607</v>
       </c>
       <c r="R10">
-        <v>6.852906836770001</v>
+        <v>1.254005158428</v>
       </c>
       <c r="S10">
-        <v>0.09965875398336389</v>
+        <v>0.0337923864301939</v>
       </c>
       <c r="T10">
-        <v>0.05774969729859532</v>
+        <v>0.01704416928275586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H11">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I11">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J11">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N11">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O11">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P11">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q11">
-        <v>1.4257478822975</v>
+        <v>0.290552470584</v>
       </c>
       <c r="R11">
-        <v>8.554487293785002</v>
+        <v>1.743314823504</v>
       </c>
       <c r="S11">
-        <v>0.08293605083425268</v>
+        <v>0.03131872719416987</v>
       </c>
       <c r="T11">
-        <v>0.07208897822892496</v>
+        <v>0.0236947613534445</v>
       </c>
     </row>
   </sheetData>
